--- a/web-tool-table-process/materials/DemogVarTable_samp.xlsx
+++ b/web-tool-table-process/materials/DemogVarTable_samp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Westat.com\dfs\SEER\Geospatial Activities\SEER_Zone_Design\~Specific Registry Zoning\~State.Registry Folder Template\WebTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Geospatial Activities\SEER_Zone_Design\Step_3c_WebToolTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52ADEAF0-8355-4CCD-B1F8-19A9BAA6B12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Webtool DEMOG_TABLES" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>TotalPop</t>
   </si>
@@ -42,9 +43,6 @@
     <t>PctRural</t>
   </si>
   <si>
-    <t>PctBelowPov</t>
-  </si>
-  <si>
     <t>PctEducLHS</t>
   </si>
   <si>
@@ -106,9 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">PctNoHealthIns </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PctBelowPov </t>
   </si>
   <si>
     <t xml:space="preserve">PctMinority </t>
@@ -310,11 +305,14 @@
      ● 10-year time period: American Community Survey, 2007-2011 and 2012-2016</t>
     </r>
   </si>
+  <si>
+    <t>Pct100Pov</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -661,7 +659,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,206 +673,206 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -896,7 +894,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,90 +906,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
